--- a/TNR_JDD/JDD.RO.LIE.xlsx
+++ b/TNR_JDD/JDD.RO.LIE.xlsx
@@ -609,7 +609,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -669,6 +669,12 @@
       <b/>
       <sz val="10.0"/>
       <color theme="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -772,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -820,8 +826,9 @@
     <xf borderId="2" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="7" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="7" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -4348,1230 +4355,1230 @@
       <c r="B1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AC1" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AD1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AE1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AF1" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AG1" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AH1" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AI1" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="AJ1" s="19" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="AK1" s="19" t="s">
+      <c r="AK1" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="AL1" s="19" t="s">
+      <c r="AL1" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="AM1" s="19" t="s">
+      <c r="AM1" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="AN1" s="19" t="s">
+      <c r="AN1" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="AO1" s="19" t="s">
+      <c r="AO1" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="AP1" s="19" t="s">
+      <c r="AP1" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="AQ1" s="19" t="s">
+      <c r="AQ1" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="AR1" s="19" t="s">
+      <c r="AR1" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="AS1" s="19" t="s">
+      <c r="AS1" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="AT1" s="19" t="s">
+      <c r="AT1" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="AU1" s="19" t="s">
+      <c r="AU1" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="AV1" s="19" t="s">
+      <c r="AV1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="AW1" s="19" t="s">
+      <c r="AW1" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="AX1" s="19" t="s">
+      <c r="AX1" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="AY1" s="19" t="s">
+      <c r="AY1" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="AZ1" s="19" t="s">
+      <c r="AZ1" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="BA1" s="19" t="s">
+      <c r="BA1" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="BB1" s="19" t="s">
+      <c r="BB1" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="BC1" s="19" t="s">
+      <c r="BC1" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="BD1" s="19" t="s">
+      <c r="BD1" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="BE1" s="19" t="s">
+      <c r="BE1" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="BF1" s="19" t="s">
+      <c r="BF1" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="BG1" s="19" t="s">
+      <c r="BG1" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="BH1" s="19" t="s">
+      <c r="BH1" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="BI1" s="19" t="s">
+      <c r="BI1" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="BJ1" s="19" t="s">
+      <c r="BJ1" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="BK1" s="19" t="s">
+      <c r="BK1" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="BL1" s="19" t="s">
+      <c r="BL1" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BM1" s="19" t="s">
+      <c r="BM1" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="BN1" s="19" t="s">
+      <c r="BN1" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="BO1" s="19" t="s">
+      <c r="BO1" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="BP1" s="19" t="s">
+      <c r="BP1" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="BQ1" s="19" t="s">
+      <c r="BQ1" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="BR1" s="19" t="s">
+      <c r="BR1" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="BS1" s="19" t="s">
+      <c r="BS1" s="20" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20"/>
-      <c r="BD2" s="20"/>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="20"/>
-      <c r="BG2" s="20"/>
-      <c r="BH2" s="20"/>
-      <c r="BI2" s="20"/>
-      <c r="BJ2" s="20"/>
-      <c r="BK2" s="20"/>
-      <c r="BL2" s="20"/>
-      <c r="BM2" s="20"/>
-      <c r="BN2" s="20"/>
-      <c r="BO2" s="20"/>
-      <c r="BP2" s="20"/>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="21"/>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="21"/>
+      <c r="BM2" s="21"/>
+      <c r="BN2" s="21"/>
+      <c r="BO2" s="21"/>
+      <c r="BP2" s="21"/>
+      <c r="BQ2" s="21"/>
+      <c r="BR2" s="21"/>
+      <c r="BS2" s="21"/>
     </row>
     <row r="3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
-      <c r="AR3" s="20"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="20"/>
-      <c r="AU3" s="20"/>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="20"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="20"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="20"/>
-      <c r="BC3" s="20"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="20"/>
-      <c r="BF3" s="20"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="20"/>
-      <c r="BI3" s="20"/>
-      <c r="BJ3" s="20"/>
-      <c r="BK3" s="20"/>
-      <c r="BL3" s="20"/>
-      <c r="BM3" s="20"/>
-      <c r="BN3" s="20"/>
-      <c r="BO3" s="20"/>
-      <c r="BP3" s="20"/>
-      <c r="BQ3" s="20"/>
-      <c r="BR3" s="20"/>
-      <c r="BS3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="21"/>
+      <c r="AU3" s="21"/>
+      <c r="AV3" s="21"/>
+      <c r="AW3" s="21"/>
+      <c r="AX3" s="21"/>
+      <c r="AY3" s="21"/>
+      <c r="AZ3" s="21"/>
+      <c r="BA3" s="21"/>
+      <c r="BB3" s="21"/>
+      <c r="BC3" s="21"/>
+      <c r="BD3" s="21"/>
+      <c r="BE3" s="21"/>
+      <c r="BF3" s="21"/>
+      <c r="BG3" s="21"/>
+      <c r="BH3" s="21"/>
+      <c r="BI3" s="21"/>
+      <c r="BJ3" s="21"/>
+      <c r="BK3" s="21"/>
+      <c r="BL3" s="21"/>
+      <c r="BM3" s="21"/>
+      <c r="BN3" s="21"/>
+      <c r="BO3" s="21"/>
+      <c r="BP3" s="21"/>
+      <c r="BQ3" s="21"/>
+      <c r="BR3" s="21"/>
+      <c r="BS3" s="21"/>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20"/>
-      <c r="AP4" s="20"/>
-      <c r="AQ4" s="20"/>
-      <c r="AR4" s="20"/>
-      <c r="AS4" s="20"/>
-      <c r="AT4" s="20"/>
-      <c r="AU4" s="20"/>
-      <c r="AV4" s="20"/>
-      <c r="AW4" s="20"/>
-      <c r="AX4" s="20"/>
-      <c r="AY4" s="20"/>
-      <c r="AZ4" s="20"/>
-      <c r="BA4" s="20"/>
-      <c r="BB4" s="20"/>
-      <c r="BC4" s="20"/>
-      <c r="BD4" s="20"/>
-      <c r="BE4" s="20"/>
-      <c r="BF4" s="20"/>
-      <c r="BG4" s="20"/>
-      <c r="BH4" s="20"/>
-      <c r="BI4" s="20"/>
-      <c r="BJ4" s="20"/>
-      <c r="BK4" s="20"/>
-      <c r="BL4" s="20"/>
-      <c r="BM4" s="20"/>
-      <c r="BN4" s="20"/>
-      <c r="BO4" s="20"/>
-      <c r="BP4" s="20"/>
-      <c r="BQ4" s="20"/>
-      <c r="BR4" s="20"/>
-      <c r="BS4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="21"/>
+      <c r="AQ4" s="21"/>
+      <c r="AR4" s="21"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="21"/>
+      <c r="AV4" s="21"/>
+      <c r="AW4" s="21"/>
+      <c r="AX4" s="21"/>
+      <c r="AY4" s="21"/>
+      <c r="AZ4" s="21"/>
+      <c r="BA4" s="21"/>
+      <c r="BB4" s="21"/>
+      <c r="BC4" s="21"/>
+      <c r="BD4" s="21"/>
+      <c r="BE4" s="21"/>
+      <c r="BF4" s="21"/>
+      <c r="BG4" s="21"/>
+      <c r="BH4" s="21"/>
+      <c r="BI4" s="21"/>
+      <c r="BJ4" s="21"/>
+      <c r="BK4" s="21"/>
+      <c r="BL4" s="21"/>
+      <c r="BM4" s="21"/>
+      <c r="BN4" s="21"/>
+      <c r="BO4" s="21"/>
+      <c r="BP4" s="21"/>
+      <c r="BQ4" s="21"/>
+      <c r="BR4" s="21"/>
+      <c r="BS4" s="21"/>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="20"/>
-      <c r="AP5" s="20"/>
-      <c r="AQ5" s="20"/>
-      <c r="AR5" s="20"/>
-      <c r="AS5" s="20"/>
-      <c r="AT5" s="20"/>
-      <c r="AU5" s="20"/>
-      <c r="AV5" s="20"/>
-      <c r="AW5" s="20"/>
-      <c r="AX5" s="20"/>
-      <c r="AY5" s="20"/>
-      <c r="AZ5" s="20"/>
-      <c r="BA5" s="20"/>
-      <c r="BB5" s="20"/>
-      <c r="BC5" s="20"/>
-      <c r="BD5" s="20"/>
-      <c r="BE5" s="20"/>
-      <c r="BF5" s="20"/>
-      <c r="BG5" s="20"/>
-      <c r="BH5" s="20"/>
-      <c r="BI5" s="20"/>
-      <c r="BJ5" s="20"/>
-      <c r="BK5" s="20"/>
-      <c r="BL5" s="20"/>
-      <c r="BM5" s="20"/>
-      <c r="BN5" s="20"/>
-      <c r="BO5" s="20"/>
-      <c r="BP5" s="20"/>
-      <c r="BQ5" s="20"/>
-      <c r="BR5" s="20"/>
-      <c r="BS5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+      <c r="AP5" s="21"/>
+      <c r="AQ5" s="21"/>
+      <c r="AR5" s="21"/>
+      <c r="AS5" s="21"/>
+      <c r="AT5" s="21"/>
+      <c r="AU5" s="21"/>
+      <c r="AV5" s="21"/>
+      <c r="AW5" s="21"/>
+      <c r="AX5" s="21"/>
+      <c r="AY5" s="21"/>
+      <c r="AZ5" s="21"/>
+      <c r="BA5" s="21"/>
+      <c r="BB5" s="21"/>
+      <c r="BC5" s="21"/>
+      <c r="BD5" s="21"/>
+      <c r="BE5" s="21"/>
+      <c r="BF5" s="21"/>
+      <c r="BG5" s="21"/>
+      <c r="BH5" s="21"/>
+      <c r="BI5" s="21"/>
+      <c r="BJ5" s="21"/>
+      <c r="BK5" s="21"/>
+      <c r="BL5" s="21"/>
+      <c r="BM5" s="21"/>
+      <c r="BN5" s="21"/>
+      <c r="BO5" s="21"/>
+      <c r="BP5" s="21"/>
+      <c r="BQ5" s="21"/>
+      <c r="BR5" s="21"/>
+      <c r="BS5" s="21"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="21"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="21"/>
-      <c r="BB6" s="21"/>
-      <c r="BC6" s="21"/>
-      <c r="BD6" s="21"/>
-      <c r="BE6" s="21"/>
-      <c r="BF6" s="21"/>
-      <c r="BG6" s="21"/>
-      <c r="BH6" s="21"/>
-      <c r="BI6" s="21"/>
-      <c r="BJ6" s="21"/>
-      <c r="BK6" s="21"/>
-      <c r="BL6" s="21"/>
-      <c r="BM6" s="21"/>
-      <c r="BN6" s="21"/>
-      <c r="BO6" s="21"/>
-      <c r="BP6" s="21"/>
-      <c r="BQ6" s="21"/>
-      <c r="BR6" s="21"/>
-      <c r="BS6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="22"/>
+      <c r="AV6" s="22"/>
+      <c r="AW6" s="22"/>
+      <c r="AX6" s="22"/>
+      <c r="AY6" s="22"/>
+      <c r="AZ6" s="22"/>
+      <c r="BA6" s="22"/>
+      <c r="BB6" s="22"/>
+      <c r="BC6" s="22"/>
+      <c r="BD6" s="22"/>
+      <c r="BE6" s="22"/>
+      <c r="BF6" s="22"/>
+      <c r="BG6" s="22"/>
+      <c r="BH6" s="22"/>
+      <c r="BI6" s="22"/>
+      <c r="BJ6" s="22"/>
+      <c r="BK6" s="22"/>
+      <c r="BL6" s="22"/>
+      <c r="BM6" s="22"/>
+      <c r="BN6" s="22"/>
+      <c r="BO6" s="22"/>
+      <c r="BP6" s="22"/>
+      <c r="BQ6" s="22"/>
+      <c r="BR6" s="22"/>
+      <c r="BS6" s="22"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="22"/>
+      <c r="A20" s="23"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="22"/>
+      <c r="A24" s="23"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="22"/>
+      <c r="A27" s="23"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="22"/>
+      <c r="A29" s="23"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="22"/>
+      <c r="A32" s="23"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="22"/>
+      <c r="A33" s="23"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="22"/>
+      <c r="A34" s="23"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="22"/>
+      <c r="A35" s="23"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="22"/>
+      <c r="A36" s="23"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="22"/>
+      <c r="A37" s="23"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="22"/>
+      <c r="A38" s="23"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="22"/>
+      <c r="A39" s="23"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="22"/>
+      <c r="A40" s="23"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="22"/>
+      <c r="A43" s="23"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="22"/>
+      <c r="A44" s="23"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="22"/>
+      <c r="A45" s="23"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="22"/>
+      <c r="A46" s="23"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="22"/>
+      <c r="A47" s="23"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="22"/>
+      <c r="A48" s="23"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="22"/>
+      <c r="A49" s="23"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="22"/>
+      <c r="A50" s="23"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="22"/>
+      <c r="A51" s="23"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="22"/>
+      <c r="A54" s="23"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="22"/>
+      <c r="A55" s="23"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="22"/>
+      <c r="A56" s="23"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="22"/>
+      <c r="A57" s="23"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="22"/>
+      <c r="A58" s="23"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="22"/>
+      <c r="A59" s="23"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="22"/>
+      <c r="A60" s="23"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="22"/>
+      <c r="A61" s="23"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="22"/>
+      <c r="A62" s="23"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="22"/>
+      <c r="A63" s="23"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="22"/>
+      <c r="A64" s="23"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="22"/>
+      <c r="A65" s="23"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="22"/>
+      <c r="A66" s="23"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="22"/>
+      <c r="A67" s="23"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="22"/>
+      <c r="A68" s="23"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="22"/>
+      <c r="A69" s="23"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="22"/>
+      <c r="A70" s="23"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="22"/>
+      <c r="A71" s="23"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="22"/>
+      <c r="A72" s="23"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="22"/>
+      <c r="A73" s="23"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="22"/>
+      <c r="A74" s="23"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="22"/>
+      <c r="A75" s="23"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="22"/>
+      <c r="A76" s="23"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="22"/>
+      <c r="A77" s="23"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="22"/>
+      <c r="A78" s="23"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="22"/>
+      <c r="A79" s="23"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="22"/>
+      <c r="A80" s="23"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="22"/>
+      <c r="A81" s="23"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="22"/>
+      <c r="A82" s="23"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="22"/>
+      <c r="A83" s="23"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="22"/>
+      <c r="A84" s="23"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="22"/>
+      <c r="A85" s="23"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="22"/>
+      <c r="A86" s="23"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="22"/>
+      <c r="A87" s="23"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="22"/>
+      <c r="A88" s="23"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="22"/>
+      <c r="A89" s="23"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="22"/>
+      <c r="A90" s="23"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="22"/>
+      <c r="A91" s="23"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="22"/>
+      <c r="A92" s="23"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="22"/>
+      <c r="A93" s="23"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="22"/>
+      <c r="A94" s="23"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="22"/>
+      <c r="A95" s="23"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="22"/>
+      <c r="A96" s="23"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="22"/>
+      <c r="A97" s="23"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="22"/>
+      <c r="A98" s="23"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="22"/>
+      <c r="A99" s="23"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="22"/>
+      <c r="A100" s="23"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="22"/>
+      <c r="A101" s="23"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="22"/>
+      <c r="A102" s="23"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="22"/>
+      <c r="A103" s="23"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="22"/>
+      <c r="A104" s="23"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="22"/>
+      <c r="A105" s="23"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="22"/>
+      <c r="A106" s="23"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="22"/>
+      <c r="A107" s="23"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="22"/>
+      <c r="A108" s="23"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="22"/>
+      <c r="A109" s="23"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="22"/>
+      <c r="A110" s="23"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="22"/>
+      <c r="A111" s="23"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="22"/>
+      <c r="A112" s="23"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="22"/>
+      <c r="A113" s="23"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="22"/>
+      <c r="A114" s="23"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="22"/>
+      <c r="A115" s="23"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="22"/>
+      <c r="A116" s="23"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="22"/>
+      <c r="A117" s="23"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="22"/>
+      <c r="A118" s="23"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="22"/>
+      <c r="A119" s="23"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="22"/>
+      <c r="A120" s="23"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="22"/>
+      <c r="A121" s="23"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="22"/>
+      <c r="A122" s="23"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="22"/>
+      <c r="A123" s="23"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="22"/>
+      <c r="A124" s="23"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="22"/>
+      <c r="A125" s="23"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="22"/>
+      <c r="A126" s="23"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="22"/>
+      <c r="A127" s="23"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="22"/>
+      <c r="A128" s="23"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="22"/>
+      <c r="A129" s="23"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="22"/>
+      <c r="A130" s="23"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="22"/>
+      <c r="A131" s="23"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="22"/>
+      <c r="A132" s="23"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="22"/>
+      <c r="A133" s="23"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="22"/>
+      <c r="A134" s="23"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="22"/>
+      <c r="A135" s="23"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="22"/>
+      <c r="A136" s="23"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="22"/>
+      <c r="A137" s="23"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="22"/>
+      <c r="A138" s="23"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="22"/>
+      <c r="A139" s="23"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="22"/>
+      <c r="A140" s="23"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="22"/>
+      <c r="A141" s="23"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="22"/>
+      <c r="A142" s="23"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="22"/>
+      <c r="A143" s="23"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="22"/>
+      <c r="A144" s="23"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="22"/>
+      <c r="A145" s="23"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="22"/>
+      <c r="A146" s="23"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="22"/>
+      <c r="A147" s="23"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="22"/>
+      <c r="A148" s="23"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="22"/>
+      <c r="A149" s="23"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="22"/>
+      <c r="A150" s="23"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="22"/>
+      <c r="A151" s="23"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="22"/>
+      <c r="A152" s="23"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="22"/>
+      <c r="A153" s="23"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="22"/>
+      <c r="A154" s="23"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="22"/>
+      <c r="A155" s="23"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="22"/>
+      <c r="A156" s="23"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="22"/>
+      <c r="A157" s="23"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="22"/>
+      <c r="A158" s="23"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="22"/>
+      <c r="A159" s="23"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="22"/>
+      <c r="A160" s="23"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="22"/>
+      <c r="A161" s="23"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="22"/>
+      <c r="A162" s="23"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="22"/>
+      <c r="A163" s="23"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="22"/>
+      <c r="A164" s="23"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="22"/>
+      <c r="A165" s="23"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="22"/>
+      <c r="A166" s="23"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="22"/>
+      <c r="A167" s="23"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="22"/>
+      <c r="A168" s="23"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="22"/>
+      <c r="A169" s="23"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="22"/>
+      <c r="A170" s="23"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="22"/>
+      <c r="A171" s="23"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="22"/>
+      <c r="A172" s="23"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="22"/>
+      <c r="A173" s="23"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="22"/>
+      <c r="A174" s="23"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="22"/>
+      <c r="A175" s="23"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="22"/>
+      <c r="A176" s="23"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="22"/>
+      <c r="A177" s="23"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="22"/>
+      <c r="A178" s="23"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="22"/>
+      <c r="A179" s="23"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="22"/>
+      <c r="A180" s="23"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="22"/>
+      <c r="A181" s="23"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="22"/>
+      <c r="A182" s="23"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="22"/>
+      <c r="A183" s="23"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="22"/>
+      <c r="A184" s="23"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="22"/>
+      <c r="A185" s="23"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="22"/>
+      <c r="A186" s="23"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="22"/>
+      <c r="A187" s="23"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="22"/>
+      <c r="A188" s="23"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="22"/>
+      <c r="A189" s="23"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="22"/>
+      <c r="A190" s="23"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="22"/>
+      <c r="A191" s="23"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="22"/>
+      <c r="A192" s="23"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="22"/>
+      <c r="A193" s="23"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="22"/>
+      <c r="A194" s="23"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="22"/>
+      <c r="A195" s="23"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="22"/>
+      <c r="A196" s="23"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="22"/>
+      <c r="A197" s="23"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="22"/>
+      <c r="A198" s="23"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="22"/>
+      <c r="A199" s="23"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="22"/>
+      <c r="A200" s="23"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="22"/>
+      <c r="A201" s="23"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="22"/>
+      <c r="A202" s="23"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="22"/>
+      <c r="A203" s="23"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="22"/>
+      <c r="A204" s="23"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="22"/>
+      <c r="A205" s="23"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="22"/>
+      <c r="A206" s="23"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="22"/>
+      <c r="A207" s="23"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="22"/>
+      <c r="A208" s="23"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="22"/>
+      <c r="A209" s="23"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="22"/>
+      <c r="A210" s="23"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="22"/>
+      <c r="A211" s="23"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="22"/>
+      <c r="A212" s="23"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="22"/>
+      <c r="A213" s="23"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="22"/>
+      <c r="A214" s="23"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="22"/>
+      <c r="A215" s="23"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="22"/>
+      <c r="A216" s="23"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="22"/>
+      <c r="A217" s="23"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="22"/>
+      <c r="A218" s="23"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="22"/>
+      <c r="A219" s="23"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="22"/>
+      <c r="A220" s="23"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -6381,13 +6388,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7421,705 +7428,705 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="18"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
     </row>
     <row r="2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="21"/>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="21"/>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="21"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="22"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="22"/>
+      <c r="A20" s="23"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="22"/>
+      <c r="A24" s="23"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="22"/>
+      <c r="A27" s="23"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="22"/>
+      <c r="A29" s="23"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="22"/>
+      <c r="A32" s="23"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="22"/>
+      <c r="A33" s="23"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="22"/>
+      <c r="A34" s="23"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="22"/>
+      <c r="A35" s="23"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="22"/>
+      <c r="A36" s="23"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="22"/>
+      <c r="A37" s="23"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="22"/>
+      <c r="A38" s="23"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="22"/>
+      <c r="A39" s="23"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="22"/>
+      <c r="A40" s="23"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="22"/>
+      <c r="A43" s="23"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="22"/>
+      <c r="A44" s="23"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="22"/>
+      <c r="A45" s="23"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="22"/>
+      <c r="A46" s="23"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="22"/>
+      <c r="A47" s="23"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="22"/>
+      <c r="A48" s="23"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="22"/>
+      <c r="A49" s="23"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="22"/>
+      <c r="A50" s="23"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="22"/>
+      <c r="A51" s="23"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="22"/>
+      <c r="A54" s="23"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="22"/>
+      <c r="A55" s="23"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="22"/>
+      <c r="A56" s="23"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="22"/>
+      <c r="A57" s="23"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="22"/>
+      <c r="A58" s="23"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="22"/>
+      <c r="A59" s="23"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="22"/>
+      <c r="A60" s="23"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="22"/>
+      <c r="A61" s="23"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="22"/>
+      <c r="A62" s="23"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="22"/>
+      <c r="A63" s="23"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="22"/>
+      <c r="A64" s="23"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="22"/>
+      <c r="A65" s="23"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="22"/>
+      <c r="A66" s="23"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="22"/>
+      <c r="A67" s="23"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="22"/>
+      <c r="A68" s="23"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="22"/>
+      <c r="A69" s="23"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="22"/>
+      <c r="A70" s="23"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="22"/>
+      <c r="A71" s="23"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="22"/>
+      <c r="A72" s="23"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="22"/>
+      <c r="A73" s="23"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="22"/>
+      <c r="A74" s="23"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="22"/>
+      <c r="A75" s="23"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="22"/>
+      <c r="A76" s="23"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="22"/>
+      <c r="A77" s="23"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="22"/>
+      <c r="A78" s="23"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="22"/>
+      <c r="A79" s="23"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="22"/>
+      <c r="A80" s="23"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="22"/>
+      <c r="A81" s="23"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="22"/>
+      <c r="A82" s="23"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="22"/>
+      <c r="A83" s="23"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="22"/>
+      <c r="A84" s="23"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="22"/>
+      <c r="A85" s="23"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="22"/>
+      <c r="A86" s="23"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="22"/>
+      <c r="A87" s="23"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="22"/>
+      <c r="A88" s="23"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="22"/>
+      <c r="A89" s="23"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="22"/>
+      <c r="A90" s="23"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="22"/>
+      <c r="A91" s="23"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="22"/>
+      <c r="A92" s="23"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="22"/>
+      <c r="A93" s="23"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="22"/>
+      <c r="A94" s="23"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="22"/>
+      <c r="A95" s="23"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="22"/>
+      <c r="A96" s="23"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="22"/>
+      <c r="A97" s="23"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="22"/>
+      <c r="A98" s="23"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="22"/>
+      <c r="A99" s="23"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="22"/>
+      <c r="A100" s="23"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="22"/>
+      <c r="A101" s="23"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="22"/>
+      <c r="A102" s="23"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="22"/>
+      <c r="A103" s="23"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="22"/>
+      <c r="A104" s="23"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="22"/>
+      <c r="A105" s="23"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="22"/>
+      <c r="A106" s="23"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="22"/>
+      <c r="A107" s="23"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="22"/>
+      <c r="A108" s="23"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="22"/>
+      <c r="A109" s="23"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="22"/>
+      <c r="A110" s="23"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="22"/>
+      <c r="A111" s="23"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="22"/>
+      <c r="A112" s="23"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="22"/>
+      <c r="A113" s="23"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="22"/>
+      <c r="A114" s="23"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="22"/>
+      <c r="A115" s="23"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="22"/>
+      <c r="A116" s="23"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="22"/>
+      <c r="A117" s="23"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="22"/>
+      <c r="A118" s="23"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="22"/>
+      <c r="A119" s="23"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="22"/>
+      <c r="A120" s="23"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="22"/>
+      <c r="A121" s="23"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="22"/>
+      <c r="A122" s="23"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="22"/>
+      <c r="A123" s="23"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="22"/>
+      <c r="A124" s="23"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="22"/>
+      <c r="A125" s="23"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="22"/>
+      <c r="A126" s="23"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="22"/>
+      <c r="A127" s="23"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="22"/>
+      <c r="A128" s="23"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="22"/>
+      <c r="A129" s="23"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="22"/>
+      <c r="A130" s="23"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="22"/>
+      <c r="A131" s="23"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="22"/>
+      <c r="A132" s="23"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="22"/>
+      <c r="A133" s="23"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="22"/>
+      <c r="A134" s="23"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="22"/>
+      <c r="A135" s="23"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="22"/>
+      <c r="A136" s="23"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="22"/>
+      <c r="A137" s="23"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="22"/>
+      <c r="A138" s="23"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="22"/>
+      <c r="A139" s="23"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="22"/>
+      <c r="A140" s="23"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="22"/>
+      <c r="A141" s="23"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="22"/>
+      <c r="A142" s="23"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="22"/>
+      <c r="A143" s="23"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="22"/>
+      <c r="A144" s="23"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="22"/>
+      <c r="A145" s="23"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="22"/>
+      <c r="A146" s="23"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="22"/>
+      <c r="A147" s="23"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="22"/>
+      <c r="A148" s="23"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="22"/>
+      <c r="A149" s="23"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="22"/>
+      <c r="A150" s="23"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="22"/>
+      <c r="A151" s="23"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="22"/>
+      <c r="A152" s="23"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="22"/>
+      <c r="A153" s="23"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="22"/>
+      <c r="A154" s="23"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="22"/>
+      <c r="A155" s="23"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="22"/>
+      <c r="A156" s="23"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="22"/>
+      <c r="A157" s="23"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="22"/>
+      <c r="A158" s="23"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="22"/>
+      <c r="A159" s="23"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="22"/>
+      <c r="A160" s="23"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="22"/>
+      <c r="A161" s="23"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="22"/>
+      <c r="A162" s="23"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="22"/>
+      <c r="A163" s="23"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="22"/>
+      <c r="A164" s="23"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="22"/>
+      <c r="A165" s="23"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="22"/>
+      <c r="A166" s="23"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="22"/>
+      <c r="A167" s="23"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="22"/>
+      <c r="A168" s="23"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="22"/>
+      <c r="A169" s="23"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="22"/>
+      <c r="A170" s="23"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="22"/>
+      <c r="A171" s="23"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="22"/>
+      <c r="A172" s="23"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="22"/>
+      <c r="A173" s="23"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="22"/>
+      <c r="A174" s="23"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="22"/>
+      <c r="A175" s="23"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="22"/>
+      <c r="A176" s="23"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="22"/>
+      <c r="A177" s="23"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="22"/>
+      <c r="A178" s="23"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="22"/>
+      <c r="A179" s="23"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="22"/>
+      <c r="A180" s="23"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="22"/>
+      <c r="A181" s="23"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="22"/>
+      <c r="A182" s="23"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="22"/>
+      <c r="A183" s="23"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="22"/>
+      <c r="A184" s="23"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="22"/>
+      <c r="A185" s="23"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="22"/>
+      <c r="A186" s="23"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="22"/>
+      <c r="A187" s="23"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="22"/>
+      <c r="A188" s="23"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="22"/>
+      <c r="A189" s="23"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="22"/>
+      <c r="A190" s="23"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="22"/>
+      <c r="A191" s="23"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="22"/>
+      <c r="A192" s="23"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="22"/>
+      <c r="A193" s="23"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="22"/>
+      <c r="A194" s="23"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="22"/>
+      <c r="A195" s="23"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="22"/>
+      <c r="A196" s="23"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="22"/>
+      <c r="A197" s="23"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="22"/>
+      <c r="A198" s="23"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="22"/>
+      <c r="A199" s="23"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="22"/>
+      <c r="A200" s="23"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="22"/>
+      <c r="A201" s="23"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="22"/>
+      <c r="A202" s="23"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="22"/>
+      <c r="A203" s="23"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="22"/>
+      <c r="A204" s="23"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="22"/>
+      <c r="A205" s="23"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="22"/>
+      <c r="A206" s="23"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="22"/>
+      <c r="A207" s="23"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="22"/>
+      <c r="A208" s="23"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="22"/>
+      <c r="A209" s="23"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="22"/>
+      <c r="A210" s="23"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="22"/>
+      <c r="A211" s="23"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="22"/>
+      <c r="A212" s="23"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="22"/>
+      <c r="A213" s="23"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="22"/>
+      <c r="A214" s="23"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="22"/>
+      <c r="A215" s="23"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="22"/>
+      <c r="A216" s="23"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="22"/>
+      <c r="A217" s="23"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="22"/>
+      <c r="A218" s="23"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="22"/>
+      <c r="A219" s="23"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="22"/>
+      <c r="A220" s="23"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>

--- a/TNR_JDD/JDD.RO.LIE.xlsx
+++ b/TNR_JDD/JDD.RO.LIE.xlsx
@@ -12,15 +12,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mjKlfkkYfq4k7yBupTgDJhuoz2peQ=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="dykK/xXrFZ28Ure/O+8MXCDg0eU99c/+0t0dYpNqiLM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="180">
   <si>
     <t>Date</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>SEQUENCE</t>
+  </si>
+  <si>
+    <t>LIE_ID</t>
   </si>
   <si>
     <t>LOCATOR</t>
@@ -778,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -830,6 +833,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="7" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="7" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -4717,7 +4723,9 @@
       <c r="A4" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="22" t="s">
+        <v>173</v>
+      </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -4790,7 +4798,7 @@
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -4864,721 +4872,721 @@
       <c r="BS5" s="21"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="22"/>
-      <c r="AW6" s="22"/>
-      <c r="AX6" s="22"/>
-      <c r="AY6" s="22"/>
-      <c r="AZ6" s="22"/>
-      <c r="BA6" s="22"/>
-      <c r="BB6" s="22"/>
-      <c r="BC6" s="22"/>
-      <c r="BD6" s="22"/>
-      <c r="BE6" s="22"/>
-      <c r="BF6" s="22"/>
-      <c r="BG6" s="22"/>
-      <c r="BH6" s="22"/>
-      <c r="BI6" s="22"/>
-      <c r="BJ6" s="22"/>
-      <c r="BK6" s="22"/>
-      <c r="BL6" s="22"/>
-      <c r="BM6" s="22"/>
-      <c r="BN6" s="22"/>
-      <c r="BO6" s="22"/>
-      <c r="BP6" s="22"/>
-      <c r="BQ6" s="22"/>
-      <c r="BR6" s="22"/>
-      <c r="BS6" s="22"/>
+      <c r="A6" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="23"/>
+      <c r="AQ6" s="23"/>
+      <c r="AR6" s="23"/>
+      <c r="AS6" s="23"/>
+      <c r="AT6" s="23"/>
+      <c r="AU6" s="23"/>
+      <c r="AV6" s="23"/>
+      <c r="AW6" s="23"/>
+      <c r="AX6" s="23"/>
+      <c r="AY6" s="23"/>
+      <c r="AZ6" s="23"/>
+      <c r="BA6" s="23"/>
+      <c r="BB6" s="23"/>
+      <c r="BC6" s="23"/>
+      <c r="BD6" s="23"/>
+      <c r="BE6" s="23"/>
+      <c r="BF6" s="23"/>
+      <c r="BG6" s="23"/>
+      <c r="BH6" s="23"/>
+      <c r="BI6" s="23"/>
+      <c r="BJ6" s="23"/>
+      <c r="BK6" s="23"/>
+      <c r="BL6" s="23"/>
+      <c r="BM6" s="23"/>
+      <c r="BN6" s="23"/>
+      <c r="BO6" s="23"/>
+      <c r="BP6" s="23"/>
+      <c r="BQ6" s="23"/>
+      <c r="BR6" s="23"/>
+      <c r="BS6" s="23"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="23"/>
+      <c r="A25" s="24"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="23"/>
+      <c r="A27" s="24"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="23"/>
+      <c r="A28" s="24"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="23"/>
+      <c r="A29" s="24"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="23"/>
+      <c r="A30" s="24"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="23"/>
+      <c r="A36" s="24"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="23"/>
+      <c r="A37" s="24"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="23"/>
+      <c r="A38" s="24"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="23"/>
+      <c r="A39" s="24"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="23"/>
+      <c r="A40" s="24"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="23"/>
+      <c r="A41" s="24"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="23"/>
+      <c r="A42" s="24"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="23"/>
+      <c r="A43" s="24"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="23"/>
+      <c r="A44" s="24"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="23"/>
+      <c r="A45" s="24"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="23"/>
+      <c r="A46" s="24"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="23"/>
+      <c r="A47" s="24"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="23"/>
+      <c r="A48" s="24"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="23"/>
+      <c r="A49" s="24"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="23"/>
+      <c r="A50" s="24"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="23"/>
+      <c r="A51" s="24"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="23"/>
+      <c r="A52" s="24"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="23"/>
+      <c r="A53" s="24"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="23"/>
+      <c r="A54" s="24"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="23"/>
+      <c r="A55" s="24"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="23"/>
+      <c r="A56" s="24"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="23"/>
+      <c r="A57" s="24"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="23"/>
+      <c r="A58" s="24"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="23"/>
+      <c r="A59" s="24"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="23"/>
+      <c r="A60" s="24"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="23"/>
+      <c r="A61" s="24"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="23"/>
+      <c r="A62" s="24"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="23"/>
+      <c r="A63" s="24"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="23"/>
+      <c r="A64" s="24"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="23"/>
+      <c r="A65" s="24"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="23"/>
+      <c r="A66" s="24"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="23"/>
+      <c r="A67" s="24"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="23"/>
+      <c r="A68" s="24"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="23"/>
+      <c r="A69" s="24"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="23"/>
+      <c r="A70" s="24"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="23"/>
+      <c r="A71" s="24"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="23"/>
+      <c r="A72" s="24"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="23"/>
+      <c r="A73" s="24"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="23"/>
+      <c r="A74" s="24"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="23"/>
+      <c r="A75" s="24"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="23"/>
+      <c r="A76" s="24"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="23"/>
+      <c r="A77" s="24"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="23"/>
+      <c r="A78" s="24"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="23"/>
+      <c r="A79" s="24"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="23"/>
+      <c r="A80" s="24"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="23"/>
+      <c r="A81" s="24"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="23"/>
+      <c r="A82" s="24"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="23"/>
+      <c r="A83" s="24"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="23"/>
+      <c r="A84" s="24"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="23"/>
+      <c r="A85" s="24"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="23"/>
+      <c r="A86" s="24"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="23"/>
+      <c r="A87" s="24"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="23"/>
+      <c r="A88" s="24"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="23"/>
+      <c r="A89" s="24"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="23"/>
+      <c r="A90" s="24"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="23"/>
+      <c r="A91" s="24"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="23"/>
+      <c r="A92" s="24"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="23"/>
+      <c r="A93" s="24"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="23"/>
+      <c r="A94" s="24"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="23"/>
+      <c r="A95" s="24"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="23"/>
+      <c r="A96" s="24"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="23"/>
+      <c r="A97" s="24"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="23"/>
+      <c r="A98" s="24"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="23"/>
+      <c r="A99" s="24"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="23"/>
+      <c r="A100" s="24"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="23"/>
+      <c r="A101" s="24"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="23"/>
+      <c r="A102" s="24"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="23"/>
+      <c r="A103" s="24"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="23"/>
+      <c r="A104" s="24"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="23"/>
+      <c r="A105" s="24"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="23"/>
+      <c r="A106" s="24"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="23"/>
+      <c r="A107" s="24"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="23"/>
+      <c r="A108" s="24"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="23"/>
+      <c r="A109" s="24"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="23"/>
+      <c r="A110" s="24"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="23"/>
+      <c r="A111" s="24"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="23"/>
+      <c r="A112" s="24"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="23"/>
+      <c r="A113" s="24"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="23"/>
+      <c r="A114" s="24"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="23"/>
+      <c r="A115" s="24"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="23"/>
+      <c r="A116" s="24"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="23"/>
+      <c r="A117" s="24"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="23"/>
+      <c r="A118" s="24"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="23"/>
+      <c r="A119" s="24"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="23"/>
+      <c r="A120" s="24"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="23"/>
+      <c r="A121" s="24"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="23"/>
+      <c r="A122" s="24"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="23"/>
+      <c r="A123" s="24"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="23"/>
+      <c r="A124" s="24"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="23"/>
+      <c r="A125" s="24"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="23"/>
+      <c r="A126" s="24"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="23"/>
+      <c r="A127" s="24"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="23"/>
+      <c r="A128" s="24"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="23"/>
+      <c r="A129" s="24"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="23"/>
+      <c r="A130" s="24"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="23"/>
+      <c r="A131" s="24"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="23"/>
+      <c r="A132" s="24"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="23"/>
+      <c r="A133" s="24"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="23"/>
+      <c r="A134" s="24"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="23"/>
+      <c r="A135" s="24"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="23"/>
+      <c r="A136" s="24"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="23"/>
+      <c r="A137" s="24"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="23"/>
+      <c r="A138" s="24"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="23"/>
+      <c r="A139" s="24"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="23"/>
+      <c r="A140" s="24"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="23"/>
+      <c r="A141" s="24"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="23"/>
+      <c r="A142" s="24"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="23"/>
+      <c r="A143" s="24"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="23"/>
+      <c r="A144" s="24"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="23"/>
+      <c r="A145" s="24"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="23"/>
+      <c r="A146" s="24"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="23"/>
+      <c r="A147" s="24"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="23"/>
+      <c r="A148" s="24"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="23"/>
+      <c r="A149" s="24"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="23"/>
+      <c r="A150" s="24"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="23"/>
+      <c r="A151" s="24"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="23"/>
+      <c r="A152" s="24"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="23"/>
+      <c r="A153" s="24"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="23"/>
+      <c r="A154" s="24"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="23"/>
+      <c r="A155" s="24"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="23"/>
+      <c r="A156" s="24"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="23"/>
+      <c r="A157" s="24"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="23"/>
+      <c r="A158" s="24"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="23"/>
+      <c r="A159" s="24"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="23"/>
+      <c r="A160" s="24"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="23"/>
+      <c r="A161" s="24"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="23"/>
+      <c r="A162" s="24"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="23"/>
+      <c r="A163" s="24"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="23"/>
+      <c r="A164" s="24"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="23"/>
+      <c r="A165" s="24"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="23"/>
+      <c r="A166" s="24"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="23"/>
+      <c r="A167" s="24"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="23"/>
+      <c r="A168" s="24"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="23"/>
+      <c r="A169" s="24"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="23"/>
+      <c r="A170" s="24"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="23"/>
+      <c r="A171" s="24"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="23"/>
+      <c r="A172" s="24"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="23"/>
+      <c r="A173" s="24"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="23"/>
+      <c r="A174" s="24"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="23"/>
+      <c r="A175" s="24"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="23"/>
+      <c r="A176" s="24"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="23"/>
+      <c r="A177" s="24"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="23"/>
+      <c r="A178" s="24"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="23"/>
+      <c r="A179" s="24"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="23"/>
+      <c r="A180" s="24"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="23"/>
+      <c r="A181" s="24"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="23"/>
+      <c r="A182" s="24"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="23"/>
+      <c r="A183" s="24"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="23"/>
+      <c r="A184" s="24"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="23"/>
+      <c r="A185" s="24"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="23"/>
+      <c r="A186" s="24"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="23"/>
+      <c r="A187" s="24"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="23"/>
+      <c r="A188" s="24"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="23"/>
+      <c r="A189" s="24"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="23"/>
+      <c r="A190" s="24"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="23"/>
+      <c r="A191" s="24"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="23"/>
+      <c r="A192" s="24"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="23"/>
+      <c r="A193" s="24"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="23"/>
+      <c r="A194" s="24"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="23"/>
+      <c r="A195" s="24"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="23"/>
+      <c r="A196" s="24"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="23"/>
+      <c r="A197" s="24"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="23"/>
+      <c r="A198" s="24"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="23"/>
+      <c r="A199" s="24"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="23"/>
+      <c r="A200" s="24"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="23"/>
+      <c r="A201" s="24"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="23"/>
+      <c r="A202" s="24"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="23"/>
+      <c r="A203" s="24"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="23"/>
+      <c r="A204" s="24"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="23"/>
+      <c r="A205" s="24"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="23"/>
+      <c r="A206" s="24"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="23"/>
+      <c r="A207" s="24"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="23"/>
+      <c r="A208" s="24"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="23"/>
+      <c r="A209" s="24"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="23"/>
+      <c r="A210" s="24"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="23"/>
+      <c r="A211" s="24"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="23"/>
+      <c r="A212" s="24"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="23"/>
+      <c r="A213" s="24"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="23"/>
+      <c r="A214" s="24"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="23"/>
+      <c r="A215" s="24"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="23"/>
+      <c r="A216" s="24"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="23"/>
+      <c r="A217" s="24"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="23"/>
+      <c r="A218" s="24"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="23"/>
+      <c r="A219" s="24"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="23"/>
+      <c r="A220" s="24"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -6388,14 +6396,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>177</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -7429,7 +7437,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="18"/>
       <c r="B1" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
@@ -7476,657 +7484,657 @@
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B5" s="21"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="22"/>
+      <c r="A6" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="23"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="23"/>
+      <c r="A25" s="24"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="23"/>
+      <c r="A27" s="24"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="23"/>
+      <c r="A28" s="24"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="23"/>
+      <c r="A29" s="24"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="23"/>
+      <c r="A30" s="24"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="23"/>
+      <c r="A36" s="24"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="23"/>
+      <c r="A37" s="24"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="23"/>
+      <c r="A38" s="24"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="23"/>
+      <c r="A39" s="24"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="23"/>
+      <c r="A40" s="24"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="23"/>
+      <c r="A41" s="24"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="23"/>
+      <c r="A42" s="24"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="23"/>
+      <c r="A43" s="24"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="23"/>
+      <c r="A44" s="24"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="23"/>
+      <c r="A45" s="24"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="23"/>
+      <c r="A46" s="24"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="23"/>
+      <c r="A47" s="24"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="23"/>
+      <c r="A48" s="24"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="23"/>
+      <c r="A49" s="24"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="23"/>
+      <c r="A50" s="24"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="23"/>
+      <c r="A51" s="24"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="23"/>
+      <c r="A52" s="24"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="23"/>
+      <c r="A53" s="24"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="23"/>
+      <c r="A54" s="24"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="23"/>
+      <c r="A55" s="24"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="23"/>
+      <c r="A56" s="24"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="23"/>
+      <c r="A57" s="24"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="23"/>
+      <c r="A58" s="24"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="23"/>
+      <c r="A59" s="24"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="23"/>
+      <c r="A60" s="24"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="23"/>
+      <c r="A61" s="24"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="23"/>
+      <c r="A62" s="24"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="23"/>
+      <c r="A63" s="24"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="23"/>
+      <c r="A64" s="24"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="23"/>
+      <c r="A65" s="24"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="23"/>
+      <c r="A66" s="24"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="23"/>
+      <c r="A67" s="24"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="23"/>
+      <c r="A68" s="24"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="23"/>
+      <c r="A69" s="24"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="23"/>
+      <c r="A70" s="24"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="23"/>
+      <c r="A71" s="24"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="23"/>
+      <c r="A72" s="24"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="23"/>
+      <c r="A73" s="24"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="23"/>
+      <c r="A74" s="24"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="23"/>
+      <c r="A75" s="24"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="23"/>
+      <c r="A76" s="24"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="23"/>
+      <c r="A77" s="24"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="23"/>
+      <c r="A78" s="24"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="23"/>
+      <c r="A79" s="24"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="23"/>
+      <c r="A80" s="24"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="23"/>
+      <c r="A81" s="24"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="23"/>
+      <c r="A82" s="24"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="23"/>
+      <c r="A83" s="24"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="23"/>
+      <c r="A84" s="24"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="23"/>
+      <c r="A85" s="24"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="23"/>
+      <c r="A86" s="24"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="23"/>
+      <c r="A87" s="24"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="23"/>
+      <c r="A88" s="24"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="23"/>
+      <c r="A89" s="24"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="23"/>
+      <c r="A90" s="24"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="23"/>
+      <c r="A91" s="24"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="23"/>
+      <c r="A92" s="24"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="23"/>
+      <c r="A93" s="24"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="23"/>
+      <c r="A94" s="24"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="23"/>
+      <c r="A95" s="24"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="23"/>
+      <c r="A96" s="24"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="23"/>
+      <c r="A97" s="24"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="23"/>
+      <c r="A98" s="24"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="23"/>
+      <c r="A99" s="24"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="23"/>
+      <c r="A100" s="24"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="23"/>
+      <c r="A101" s="24"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="23"/>
+      <c r="A102" s="24"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="23"/>
+      <c r="A103" s="24"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="23"/>
+      <c r="A104" s="24"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="23"/>
+      <c r="A105" s="24"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="23"/>
+      <c r="A106" s="24"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="23"/>
+      <c r="A107" s="24"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="23"/>
+      <c r="A108" s="24"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="23"/>
+      <c r="A109" s="24"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="23"/>
+      <c r="A110" s="24"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="23"/>
+      <c r="A111" s="24"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="23"/>
+      <c r="A112" s="24"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="23"/>
+      <c r="A113" s="24"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="23"/>
+      <c r="A114" s="24"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="23"/>
+      <c r="A115" s="24"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="23"/>
+      <c r="A116" s="24"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="23"/>
+      <c r="A117" s="24"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="23"/>
+      <c r="A118" s="24"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="23"/>
+      <c r="A119" s="24"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="23"/>
+      <c r="A120" s="24"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="23"/>
+      <c r="A121" s="24"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="23"/>
+      <c r="A122" s="24"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="23"/>
+      <c r="A123" s="24"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="23"/>
+      <c r="A124" s="24"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="23"/>
+      <c r="A125" s="24"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="23"/>
+      <c r="A126" s="24"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="23"/>
+      <c r="A127" s="24"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="23"/>
+      <c r="A128" s="24"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="23"/>
+      <c r="A129" s="24"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="23"/>
+      <c r="A130" s="24"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="23"/>
+      <c r="A131" s="24"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="23"/>
+      <c r="A132" s="24"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="23"/>
+      <c r="A133" s="24"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="23"/>
+      <c r="A134" s="24"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="23"/>
+      <c r="A135" s="24"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="23"/>
+      <c r="A136" s="24"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="23"/>
+      <c r="A137" s="24"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="23"/>
+      <c r="A138" s="24"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="23"/>
+      <c r="A139" s="24"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="23"/>
+      <c r="A140" s="24"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="23"/>
+      <c r="A141" s="24"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="23"/>
+      <c r="A142" s="24"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="23"/>
+      <c r="A143" s="24"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="23"/>
+      <c r="A144" s="24"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="23"/>
+      <c r="A145" s="24"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="23"/>
+      <c r="A146" s="24"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="23"/>
+      <c r="A147" s="24"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="23"/>
+      <c r="A148" s="24"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="23"/>
+      <c r="A149" s="24"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="23"/>
+      <c r="A150" s="24"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="23"/>
+      <c r="A151" s="24"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="23"/>
+      <c r="A152" s="24"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="23"/>
+      <c r="A153" s="24"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="23"/>
+      <c r="A154" s="24"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="23"/>
+      <c r="A155" s="24"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="23"/>
+      <c r="A156" s="24"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="23"/>
+      <c r="A157" s="24"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="23"/>
+      <c r="A158" s="24"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="23"/>
+      <c r="A159" s="24"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="23"/>
+      <c r="A160" s="24"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="23"/>
+      <c r="A161" s="24"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="23"/>
+      <c r="A162" s="24"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="23"/>
+      <c r="A163" s="24"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="23"/>
+      <c r="A164" s="24"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="23"/>
+      <c r="A165" s="24"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="23"/>
+      <c r="A166" s="24"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="23"/>
+      <c r="A167" s="24"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="23"/>
+      <c r="A168" s="24"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="23"/>
+      <c r="A169" s="24"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="23"/>
+      <c r="A170" s="24"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="23"/>
+      <c r="A171" s="24"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="23"/>
+      <c r="A172" s="24"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="23"/>
+      <c r="A173" s="24"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="23"/>
+      <c r="A174" s="24"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="23"/>
+      <c r="A175" s="24"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="23"/>
+      <c r="A176" s="24"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="23"/>
+      <c r="A177" s="24"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="23"/>
+      <c r="A178" s="24"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="23"/>
+      <c r="A179" s="24"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="23"/>
+      <c r="A180" s="24"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="23"/>
+      <c r="A181" s="24"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="23"/>
+      <c r="A182" s="24"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="23"/>
+      <c r="A183" s="24"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="23"/>
+      <c r="A184" s="24"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="23"/>
+      <c r="A185" s="24"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="23"/>
+      <c r="A186" s="24"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="23"/>
+      <c r="A187" s="24"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="23"/>
+      <c r="A188" s="24"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="23"/>
+      <c r="A189" s="24"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="23"/>
+      <c r="A190" s="24"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="23"/>
+      <c r="A191" s="24"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="23"/>
+      <c r="A192" s="24"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="23"/>
+      <c r="A193" s="24"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="23"/>
+      <c r="A194" s="24"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="23"/>
+      <c r="A195" s="24"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="23"/>
+      <c r="A196" s="24"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="23"/>
+      <c r="A197" s="24"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="23"/>
+      <c r="A198" s="24"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="23"/>
+      <c r="A199" s="24"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="23"/>
+      <c r="A200" s="24"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="23"/>
+      <c r="A201" s="24"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="23"/>
+      <c r="A202" s="24"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="23"/>
+      <c r="A203" s="24"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="23"/>
+      <c r="A204" s="24"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="23"/>
+      <c r="A205" s="24"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="23"/>
+      <c r="A206" s="24"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="23"/>
+      <c r="A207" s="24"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="23"/>
+      <c r="A208" s="24"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="23"/>
+      <c r="A209" s="24"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="23"/>
+      <c r="A210" s="24"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="23"/>
+      <c r="A211" s="24"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="23"/>
+      <c r="A212" s="24"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="23"/>
+      <c r="A213" s="24"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="23"/>
+      <c r="A214" s="24"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="23"/>
+      <c r="A215" s="24"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="23"/>
+      <c r="A216" s="24"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="23"/>
+      <c r="A217" s="24"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="23"/>
+      <c r="A218" s="24"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="23"/>
+      <c r="A219" s="24"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="23"/>
+      <c r="A220" s="24"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
